--- a/요구사항/인터뷰질의서.xlsx
+++ b/요구사항/인터뷰질의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648114C-1059-48D6-8DB7-4C93B30F93AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE5F49-D136-43D4-94C0-1CC8EFE6C9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7F5F2764-726C-4EE6-B084-0D0816B5D1A9}"/>
+    <workbookView xWindow="10365" yWindow="1965" windowWidth="18165" windowHeight="11835" xr2:uid="{7F5F2764-726C-4EE6-B084-0D0816B5D1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,6 +186,130 @@
   </si>
   <si>
     <t>수강생들 수강등록은 어떻게 이루어지나요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비트캠프 학원 홈페이지의 회원관리와, 직원 등록, 강좌개설 그리고 수강생들의 성적관리와 출결관리를 하고 있습니다. 수강생들의 출석률이 80%이하 인 경우 따로 관리를 하거나 퇴학을 시킵니다. 또한 성적조회나 성적 수정같은 일도 할 수 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">저희 업무는 행정팀만 하며 직원관리와 수강생관리가 주 업무입니다. 학생들의 성적이나 출석조회는 수강생과 강사, 취업팀도 가능합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">홈페이지의 회원관리와 직원등록, 그리고 학생들의 성적 입력, 수정 및 출석률 조회가 필요합니다. 강좌개설 또한 전산화가 필요합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강사팀, 영업팀, 행정팀, 취업팀, 회계팀이 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강좌를 행정팀이 개설하면 그 강좌에 맞춰서 영업팀이 수강생 모집공고를 올립니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한 강좌에 3개월이 소요되며 자바, 웹, 프레임워크를 교육합니다. 한 강좌에 30명이 정원입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학원은 강의실이 3개 있고 한 반에 30명까지 들어갈 수 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수업은 오전 9시부터 오후 18시까지 입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생들의 연락처, 이름, 이메일, 시험성적, 출석정보 등이 필요합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직원관리와 강좌개설은 행정팀만 할 수 있습니다. 다른 부서가 전산에서 행정일을 할 수 없게 해야 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LMS에 접속하려면 모든 사람이 회원가입을 해야 합니다. 수강생도 물론 회원가입을해야 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학원에서 자바, 웹, 프레임워크를 가르치고 있습니다. 그리고 총 3번의 시험을 출제하고 수강생들 성적을 기록합니다. 또한 수강생들 출석체크도 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자바, 웹, 프레임워크를 3개월 간 한 강좌에서 가르칩니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사팀이 직접 출석체크를 합니다. 9시보다 늦게오면 지각, 안오면 결석입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자바, 웹, 프레임워크 각각 시험을 보며 총 3번 성적을 기록합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한 강사가 3과목을 모두 가르치고 강좌는 행정팀에서 개강월과 같이 강사를 배정해 줍니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매월 1일 개강이며 개강월로부터 3개월간 운영됩니다. 개강월은 행정팀에서 맞는 강사와 합께 정해줍니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시험은 월말에 1번씩 자바, 웹, 프레임워크 과목별로 3번 치릅니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행정팀에서 강사와 강의실, 개강월을 정해 강좌를 개설해줍니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주로 강사팀만 사용하지만 성적조회와 출석조회는 수강생들도 이용합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개설된 강좌에 모집공고를 올리고 학생들을 수강등록하는 일을 하고 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영엽팀만 이용합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행정팀에서 강좌를 개설하면 그 강좌와 함께 모집공고를 만들어 홈페이지의 교육과정 메뉴에서 강좌목록을 보여줍니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강생들은 교육과정 메뉴에서 강좌목록을 통해 수강신청을 할 수 있고 영업팀에서 들어온 신청목록에서 수강등록을 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강신청한 수강생들을 영업팀에서 조회해서 수강등록을 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행정팀과 개설강좌목록을 같이 공유합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">취업센터에서 취업현황과 취업지원을 맡고 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업현황과 취업 정보를 저희가 관리하고 수강생들이나 비회원들이 자료를 열람할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시판에 취업 정보를 업로드 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수료생들에게 직접 설문하여 통계를 내어 취업현황 게시판에 업로드 합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학생들의 출결정보와 성적을 조회할 수 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -369,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +506,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,83 +551,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -795,674 +892,817 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABE2604-2C96-4422-AE1D-A70DFE3F6D8D}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:I44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="20">
         <v>44046</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="28" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="28" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="28" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="31" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="28" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="15" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="16" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="13"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-    </row>
-    <row r="49" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-    </row>
-    <row r="52" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="A25:A30"/>
@@ -1481,93 +1721,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
